--- a/autopts_report/report.xlsx
+++ b/autopts_report/report.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
-    <t>AutoPTS Report: 2021-09-03 18:02</t>
+    <t>AutoPTS Report: 2021-09-03 18:38</t>
   </si>
   <si>
     <t>Test Case</t>
